--- a/static/do not delete.xlsx
+++ b/static/do not delete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="516" windowWidth="22716" windowHeight="8940"/>
+    <workbookView xWindow="516" yWindow="564" windowWidth="15996" windowHeight="5244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Risk Stats" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$40</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -846,27 +846,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Number of risks 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
       <t xml:space="preserve">Number of controls
 </t>
     </r>
@@ -1037,6 +1016,21 @@
     <t>This is basically a comparasion of how many risks are associated with each Business units</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Number of risks 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>25</t>
+    </r>
+  </si>
+  <si>
     <t>count_data</t>
   </si>
 </sst>
@@ -1044,7 +1038,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,12 +1051,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1156,28 +1144,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,7 +1205,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -1225,6 +1216,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1353,6 +1345,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1496,11 +1489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189114624"/>
-        <c:axId val="189120896"/>
+        <c:axId val="193250048"/>
+        <c:axId val="193251968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189114624"/>
+        <c:axId val="193250048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1545,7 +1538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189120896"/>
+        <c:crossAx val="193251968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1553,7 +1546,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189120896"/>
+        <c:axId val="193251968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189114624"/>
+        <c:crossAx val="193250048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1886,11 +1879,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189246848"/>
-        <c:axId val="189249024"/>
+        <c:axId val="193374464"/>
+        <c:axId val="193384832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189246848"/>
+        <c:axId val="193374464"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1935,7 +1928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189249024"/>
+        <c:crossAx val="193384832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1943,7 +1936,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189249024"/>
+        <c:axId val="193384832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +1993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189246848"/>
+        <c:crossAx val="193374464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2318,11 +2311,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189371904"/>
-        <c:axId val="189373824"/>
+        <c:axId val="193458944"/>
+        <c:axId val="193460864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189371904"/>
+        <c:axId val="193458944"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2367,7 +2360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189373824"/>
+        <c:crossAx val="193460864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2375,7 +2368,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189373824"/>
+        <c:axId val="193460864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189371904"/>
+        <c:crossAx val="193458944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2708,11 +2701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189442688"/>
-        <c:axId val="189448960"/>
+        <c:axId val="193501440"/>
+        <c:axId val="193868160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189442688"/>
+        <c:axId val="193501440"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2757,7 +2750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189448960"/>
+        <c:crossAx val="193868160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2765,7 +2758,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189448960"/>
+        <c:axId val="193868160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189442688"/>
+        <c:crossAx val="193501440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2861,7 +2854,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2872,6 +2865,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3000,6 +2994,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3051,7 +3046,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3062,6 +3057,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3161,11 +3157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189589376"/>
-        <c:axId val="189599744"/>
+        <c:axId val="193599360"/>
+        <c:axId val="193626112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189589376"/>
+        <c:axId val="193599360"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3185,10 +3181,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3210,7 +3207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189599744"/>
+        <c:crossAx val="193626112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3218,7 +3215,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189599744"/>
+        <c:axId val="193626112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,10 +3244,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3275,7 +3273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189589376"/>
+        <c:crossAx val="193599360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3314,7 +3312,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3325,6 +3323,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3438,6 +3437,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3489,7 +3489,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3500,6 +3500,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3599,11 +3600,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188810752"/>
-        <c:axId val="188812672"/>
+        <c:axId val="192882944"/>
+        <c:axId val="192893312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188810752"/>
+        <c:axId val="192882944"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3623,10 +3624,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3648,7 +3650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188812672"/>
+        <c:crossAx val="192893312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3656,7 +3658,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188812672"/>
+        <c:axId val="192893312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,10 +3687,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3713,7 +3716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188810752"/>
+        <c:crossAx val="192882944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3752,7 +3755,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3763,6 +3766,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3856,11 +3860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189652992"/>
-        <c:axId val="189654912"/>
+        <c:axId val="193683840"/>
+        <c:axId val="193685760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189652992"/>
+        <c:axId val="193683840"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3880,10 +3884,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3905,7 +3910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189654912"/>
+        <c:crossAx val="193685760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3913,7 +3918,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189654912"/>
+        <c:axId val="193685760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,10 +3947,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3970,7 +3976,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189652992"/>
+        <c:crossAx val="193683840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4009,7 +4015,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -4020,6 +4026,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4148,6 +4155,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4199,7 +4207,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -4210,6 +4218,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4309,11 +4318,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189696256"/>
-        <c:axId val="189714816"/>
+        <c:axId val="193825792"/>
+        <c:axId val="193827968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189696256"/>
+        <c:axId val="193825792"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4333,10 +4342,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4358,7 +4368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189714816"/>
+        <c:crossAx val="193827968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4366,7 +4376,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189714816"/>
+        <c:axId val="193827968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,10 +4405,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4423,7 +4434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189696256"/>
+        <c:crossAx val="193825792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4462,7 +4473,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -4473,6 +4484,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4601,6 +4613,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4652,7 +4665,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -4663,6 +4676,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4762,11 +4776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189784832"/>
-        <c:axId val="189786752"/>
+        <c:axId val="193955712"/>
+        <c:axId val="193957888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189784832"/>
+        <c:axId val="193955712"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4786,10 +4800,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4811,7 +4826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189786752"/>
+        <c:crossAx val="193957888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4819,7 +4834,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189786752"/>
+        <c:axId val="193957888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4848,10 +4863,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4876,7 +4892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189784832"/>
+        <c:crossAx val="193955712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4915,7 +4931,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4926,6 +4942,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5054,6 +5071,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5105,7 +5123,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -5116,6 +5134,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5215,11 +5234,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189914496"/>
-        <c:axId val="189916672"/>
+        <c:axId val="192418944"/>
+        <c:axId val="192420864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189914496"/>
+        <c:axId val="192418944"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5239,10 +5258,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5264,7 +5284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189916672"/>
+        <c:crossAx val="192420864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5272,7 +5292,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189916672"/>
+        <c:axId val="192420864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5301,10 +5321,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -5329,7 +5350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189914496"/>
+        <c:crossAx val="192418944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5368,7 +5389,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -5379,6 +5400,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5822,6 +5844,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5873,7 +5896,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -5884,6 +5907,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6109,11 +6133,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190109952"/>
-        <c:axId val="190124416"/>
+        <c:axId val="192516480"/>
+        <c:axId val="192518400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190109952"/>
+        <c:axId val="192516480"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6133,10 +6157,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6158,7 +6183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190124416"/>
+        <c:crossAx val="192518400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6166,7 +6191,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190124416"/>
+        <c:axId val="192518400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6195,10 +6220,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6223,7 +6249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190109952"/>
+        <c:crossAx val="192516480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6262,7 +6288,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -6273,6 +6299,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6386,6 +6413,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6437,7 +6465,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -6448,6 +6476,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6891,6 +6920,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6942,7 +6972,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6953,6 +6983,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7046,11 +7077,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190255488"/>
-        <c:axId val="190257408"/>
+        <c:axId val="194296448"/>
+        <c:axId val="194302720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190255488"/>
+        <c:axId val="194296448"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7070,10 +7101,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7095,7 +7127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190257408"/>
+        <c:crossAx val="194302720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7103,7 +7135,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190257408"/>
+        <c:axId val="194302720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7132,10 +7164,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7160,7 +7193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190255488"/>
+        <c:crossAx val="194296448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7199,7 +7232,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -7210,6 +7243,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7435,11 +7469,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188920192"/>
-        <c:axId val="188922112"/>
+        <c:axId val="193058304"/>
+        <c:axId val="193060224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188920192"/>
+        <c:axId val="193058304"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7459,10 +7493,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7484,7 +7519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188922112"/>
+        <c:crossAx val="193060224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7492,7 +7527,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188922112"/>
+        <c:axId val="193060224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7521,10 +7556,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7549,7 +7585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188920192"/>
+        <c:crossAx val="193058304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7588,7 +7624,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -7599,6 +7635,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7907,6 +7944,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -7958,7 +7996,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -7969,6 +8007,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8140,11 +8179,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189317120"/>
-        <c:axId val="189319040"/>
+        <c:axId val="193129472"/>
+        <c:axId val="193131648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189317120"/>
+        <c:axId val="193129472"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8164,10 +8203,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8189,7 +8229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189319040"/>
+        <c:crossAx val="193131648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8197,7 +8237,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189319040"/>
+        <c:axId val="193131648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8226,10 +8266,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8254,7 +8295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189317120"/>
+        <c:crossAx val="193129472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8293,7 +8334,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -8304,6 +8345,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8417,6 +8459,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -8468,7 +8511,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" i="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -8479,6 +8522,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8572,11 +8616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189052032"/>
-        <c:axId val="189053952"/>
+        <c:axId val="193203200"/>
+        <c:axId val="193209472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189052032"/>
+        <c:axId val="193203200"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8596,10 +8640,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8621,7 +8666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189053952"/>
+        <c:crossAx val="193209472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8629,7 +8674,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189053952"/>
+        <c:axId val="193209472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8658,10 +8703,11 @@
                     <a:latin typeface="+mn-lt"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8686,7 +8732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189052032"/>
+        <c:crossAx val="193203200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9846,13 +9892,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="16.59765625" customWidth="1"/>
+    <col min="1" max="5" width="16.59765625" customWidth="1"/>
+    <col min="6" max="6" width="113.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9862,47 +9910,47 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9912,47 +9960,47 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9962,47 +10010,47 @@
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10012,47 +10060,47 @@
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10062,47 +10110,47 @@
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10112,47 +10160,47 @@
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10162,47 +10210,47 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10212,47 +10260,47 @@
       <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10262,47 +10310,47 @@
       <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10312,47 +10360,47 @@
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10362,47 +10410,47 @@
       <c r="B11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="N11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10412,47 +10460,47 @@
       <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10462,47 +10510,47 @@
       <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10512,47 +10560,47 @@
       <c r="B14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10562,47 +10610,47 @@
       <c r="B15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10612,47 +10660,47 @@
       <c r="B16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10662,47 +10710,47 @@
       <c r="B17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10712,47 +10760,47 @@
       <c r="B18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10762,47 +10810,47 @@
       <c r="B19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10812,47 +10860,47 @@
       <c r="B20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10862,47 +10910,47 @@
       <c r="B21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10912,47 +10960,47 @@
       <c r="B22" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10962,47 +11010,47 @@
       <c r="B23" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11012,47 +11060,47 @@
       <c r="B24" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11062,47 +11110,47 @@
       <c r="B25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="N25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11112,47 +11160,47 @@
       <c r="B26" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11162,47 +11210,47 @@
       <c r="B27" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11212,47 +11260,47 @@
       <c r="B28" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11262,47 +11310,47 @@
       <c r="B29" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11312,47 +11360,47 @@
       <c r="B30" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11362,47 +11410,47 @@
       <c r="B31" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11412,47 +11460,47 @@
       <c r="B32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11462,47 +11510,47 @@
       <c r="B33" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11512,47 +11560,47 @@
       <c r="B34" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11562,47 +11610,47 @@
       <c r="B35" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11612,47 +11660,47 @@
       <c r="B36" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11662,47 +11710,47 @@
       <c r="B37" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11712,47 +11760,47 @@
       <c r="B38" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11762,47 +11810,47 @@
       <c r="B39" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11812,47 +11860,47 @@
       <c r="B40" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="N40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="O40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12816,7 +12864,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:O40"/>
+  <autoFilter ref="A1:P40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -12826,7 +12874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X984"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12837,112 +12887,112 @@
       <c r="A1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="F1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="U1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="U1" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13923,12 +13973,12 @@
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="U1:X4"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="F1:I4"/>
     <mergeCell ref="K1:N4"/>
     <mergeCell ref="P1:S4"/>
+    <mergeCell ref="U1:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -13940,7 +13990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13953,12 +14003,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -13966,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14023,18 +14073,18 @@
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14249,18 +14299,18 @@
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14403,18 +14453,18 @@
     <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14465,18 +14515,18 @@
     <row r="91" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="E93" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14507,18 +14557,18 @@
     <row r="105" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="E107" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14549,18 +14599,18 @@
     <row r="119" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14610,18 +14660,18 @@
     <row r="138" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="E140" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14634,7 +14684,7 @@
     </row>
     <row r="142" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D142" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E142" s="2">
         <v>0</v>
@@ -15509,7 +15559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15522,18 +15574,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15596,18 +15648,18 @@
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15661,18 +15713,18 @@
     <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15737,18 +15789,18 @@
     <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16720,7 +16772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16732,18 +16786,18 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16808,18 +16862,18 @@
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
@@ -17036,18 +17090,18 @@
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
